--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_291__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_291__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,178 +5873,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>14.34833717346191</c:v>
+                  <c:v>14.34833240509033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.21677207946777</c:v>
+                  <c:v>20.21677589416504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.033646583557129</c:v>
+                  <c:v>7.03364896774292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.160676956176758</c:v>
+                  <c:v>9.160678863525391</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28.41441917419434</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0402660369873</c:v>
+                  <c:v>18.04026412963867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.37443542480469</c:v>
+                  <c:v>34.37442779541016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.92164611816406</c:v>
+                  <c:v>21.92164993286133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.1586856842041</c:v>
+                  <c:v>14.15869235992432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.52543067932129</c:v>
+                  <c:v>17.52542877197266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.35078239440918</c:v>
+                  <c:v>21.35078811645508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.24378776550293</c:v>
+                  <c:v>18.24379348754883</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.42301177978516</c:v>
+                  <c:v>20.42300796508789</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>33.65108108520508</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.81710815429688</c:v>
+                  <c:v>19.81711196899414</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>21.80727577209473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.0654411315918</c:v>
+                  <c:v>30.06544494628906</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.86934280395508</c:v>
+                  <c:v>19.86934852600098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.988937377929688</c:v>
+                  <c:v>4.988934993743896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.30291175842285</c:v>
+                  <c:v>23.30291748046875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.61710739135742</c:v>
+                  <c:v>35.61711120605469</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32.94398498535156</c:v>
+                  <c:v>32.94398880004883</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.93836402893066</c:v>
+                  <c:v>19.93838119506836</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.5540657043457</c:v>
+                  <c:v>36.55406951904297</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.687193632125854</c:v>
+                  <c:v>3.687198400497437</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.74883079528809</c:v>
+                  <c:v>20.74884414672852</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>18.96317672729492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.05797004699707</c:v>
+                  <c:v>19.05797576904297</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.2856616973877</c:v>
+                  <c:v>20.28565216064453</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.26263999938965</c:v>
+                  <c:v>19.26264190673828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.96166038513184</c:v>
+                  <c:v>21.96166801452637</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.27202224731445</c:v>
+                  <c:v>16.27203369140625</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>28.62394714355469</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25.6330451965332</c:v>
+                  <c:v>25.63304901123047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22.37410163879395</c:v>
+                  <c:v>22.37411689758301</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.82255935668945</c:v>
+                  <c:v>28.82255363464355</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.221920251846313</c:v>
+                  <c:v>2.22191333770752</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.92781066894531</c:v>
+                  <c:v>19.92781448364258</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.46526527404785</c:v>
+                  <c:v>18.46525764465332</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>32.76931381225586</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.45138740539551</c:v>
+                  <c:v>17.45139694213867</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>25.40845680236816</c:v>
+                  <c:v>25.4084587097168</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.71316337585449</c:v>
+                  <c:v>18.71316528320312</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32.661376953125</c:v>
+                  <c:v>32.66138076782227</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.22637367248535</c:v>
+                  <c:v>20.22638320922852</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.48302555084229</c:v>
+                  <c:v>13.4830207824707</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>15.91466426849365</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.10167121887207</c:v>
+                  <c:v>30.10167503356934</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20.07561492919922</c:v>
+                  <c:v>20.07560920715332</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.67971229553223</c:v>
+                  <c:v>18.6797046661377</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.06765556335449</c:v>
+                  <c:v>17.06766128540039</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16.3375244140625</c:v>
+                  <c:v>16.3375129699707</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.57707977294922</c:v>
+                  <c:v>18.57707786560059</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>23.33939361572266</c:v>
+                  <c:v>23.33939552307129</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24.70965194702148</c:v>
+                  <c:v>24.70964813232422</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>24.8511905670166</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.89871978759766</c:v>
+                  <c:v>14.89871311187744</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21.45201683044434</c:v>
+                  <c:v>21.45202255249023</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>10.71475791931152</c:v>
@@ -6053,28 +6053,28 @@
                   <c:v>32.41366195678711</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.3983097076416</c:v>
+                  <c:v>21.39831733703613</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19.11812400817871</c:v>
+                  <c:v>19.11813354492188</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>28.18153953552246</c:v>
+                  <c:v>28.18152046203613</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>22.45280647277832</c:v>
+                  <c:v>22.45280456542969</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.060943603515625</c:v>
+                  <c:v>9.06095027923584</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20.283203125</c:v>
+                  <c:v>20.2831974029541</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>26.06194686889648</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.70866775512695</c:v>
+                  <c:v>12.70867443084717</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>14.46443843841553</c:v>
@@ -6083,10 +6083,10 @@
                   <c:v>19.52995109558105</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20.35887908935547</c:v>
+                  <c:v>20.35887145996094</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>18.90411567687988</c:v>
+                  <c:v>18.90411186218262</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>15.56445026397705</c:v>
@@ -6095,76 +6095,76 @@
                   <c:v>16.17484092712402</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.20499610900879</c:v>
+                  <c:v>28.20500373840332</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>19.21635818481445</c:v>
+                  <c:v>19.21636009216309</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22.50606155395508</c:v>
+                  <c:v>22.50606918334961</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.248334884643555</c:v>
+                  <c:v>6.248348712921143</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>18.18917465209961</c:v>
+                  <c:v>18.18916893005371</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.91206359863281</c:v>
+                  <c:v>15.91205883026123</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19.0387077331543</c:v>
+                  <c:v>19.03871536254883</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>14.81525325775146</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>21.39945220947266</c:v>
+                  <c:v>21.39945030212402</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>32.2075309753418</c:v>
+                  <c:v>32.20754623413086</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>18.97222328186035</c:v>
+                  <c:v>18.97222137451172</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>15.95998954772949</c:v>
+                  <c:v>15.95998764038086</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>18.06265258789062</c:v>
+                  <c:v>18.06265449523926</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>36.19352722167969</c:v>
+                  <c:v>36.19350814819336</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.0578727722168</c:v>
+                  <c:v>18.05786514282227</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.00432968139648</c:v>
+                  <c:v>14.00433254241943</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>27.40367126464844</c:v>
+                  <c:v>27.40368270874023</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>16.82749557495117</c:v>
+                  <c:v>16.82750129699707</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.605499267578125</c:v>
+                  <c:v>9.605501174926758</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>22.41049194335938</c:v>
+                  <c:v>22.4105052947998</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>3.761257886886597</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>20.72448348999023</c:v>
+                  <c:v>20.72447967529297</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>25.40838623046875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>21.27804756164551</c:v>
+                  <c:v>21.27803993225098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.34833717346191</v>
+        <v>14.34833240509033</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>20.21677207946777</v>
+        <v>20.21677589416504</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7.033646583557129</v>
+        <v>7.03364896774292</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9.160676956176758</v>
+        <v>9.160678863525391</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.0402660369873</v>
+        <v>18.04026412963867</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.37443542480469</v>
+        <v>34.37442779541016</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.92164611816406</v>
+        <v>21.92164993286133</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>14.1586856842041</v>
+        <v>14.15869235992432</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.52543067932129</v>
+        <v>17.52542877197266</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.35078239440918</v>
+        <v>21.35078811645508</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>18.24378776550293</v>
+        <v>18.24379348754883</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.42301177978516</v>
+        <v>20.42300796508789</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>19.81710815429688</v>
+        <v>19.81711196899414</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.0654411315918</v>
+        <v>30.06544494628906</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>19.86934280395508</v>
+        <v>19.86934852600098</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>4.988937377929688</v>
+        <v>4.988934993743896</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.30291175842285</v>
+        <v>23.30291748046875</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.61710739135742</v>
+        <v>35.61711120605469</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.94398498535156</v>
+        <v>32.94398880004883</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.93836402893066</v>
+        <v>19.93838119506836</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.5540657043457</v>
+        <v>36.55406951904297</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.687193632125854</v>
+        <v>3.687198400497437</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>20.74883079528809</v>
+        <v>20.74884414672852</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>19.05797004699707</v>
+        <v>19.05797576904297</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>20.2856616973877</v>
+        <v>20.28565216064453</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>19.26263999938965</v>
+        <v>19.26264190673828</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>21.96166038513184</v>
+        <v>21.96166801452637</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>16.27202224731445</v>
+        <v>16.27203369140625</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>25.6330451965332</v>
+        <v>25.63304901123047</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>22.37410163879395</v>
+        <v>22.37411689758301</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>28.82255935668945</v>
+        <v>28.82255363464355</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2.221920251846313</v>
+        <v>2.22191333770752</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>19.92781066894531</v>
+        <v>19.92781448364258</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>18.46526527404785</v>
+        <v>18.46525764465332</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>17.45138740539551</v>
+        <v>17.45139694213867</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>25.40845680236816</v>
+        <v>25.4084587097168</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>18.71316337585449</v>
+        <v>18.71316528320312</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>32.661376953125</v>
+        <v>32.66138076782227</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>20.22637367248535</v>
+        <v>20.22638320922852</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>13.48302555084229</v>
+        <v>13.4830207824707</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>30.10167121887207</v>
+        <v>30.10167503356934</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>20.07561492919922</v>
+        <v>20.07560920715332</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>18.67971229553223</v>
+        <v>18.6797046661377</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>17.06765556335449</v>
+        <v>17.06766128540039</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>16.3375244140625</v>
+        <v>16.3375129699707</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>18.57707977294922</v>
+        <v>18.57707786560059</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>23.33939361572266</v>
+        <v>23.33939552307129</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>24.70965194702148</v>
+        <v>24.70964813232422</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>14.89871978759766</v>
+        <v>14.89871311187744</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>21.45201683044434</v>
+        <v>21.45202255249023</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>21.3983097076416</v>
+        <v>21.39831733703613</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>19.11812400817871</v>
+        <v>19.11813354492188</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>28.18153953552246</v>
+        <v>28.18152046203613</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>22.45280647277832</v>
+        <v>22.45280456542969</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>9.060943603515625</v>
+        <v>9.06095027923584</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>20.283203125</v>
+        <v>20.2831974029541</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12.70866775512695</v>
+        <v>12.70867443084717</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>20.35887908935547</v>
+        <v>20.35887145996094</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>18.90411567687988</v>
+        <v>18.90411186218262</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>28.20499610900879</v>
+        <v>28.20500373840332</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>19.21635818481445</v>
+        <v>19.21636009216309</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>22.50606155395508</v>
+        <v>22.50606918334961</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>6.248334884643555</v>
+        <v>6.248348712921143</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>18.18917465209961</v>
+        <v>18.18916893005371</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>15.91206359863281</v>
+        <v>15.91205883026123</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>19.0387077331543</v>
+        <v>19.03871536254883</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>21.39945220947266</v>
+        <v>21.39945030212402</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>32.2075309753418</v>
+        <v>32.20754623413086</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>18.97222328186035</v>
+        <v>18.97222137451172</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>15.95998954772949</v>
+        <v>15.95998764038086</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>18.06265258789062</v>
+        <v>18.06265449523926</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>36.19352722167969</v>
+        <v>36.19350814819336</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>18.0578727722168</v>
+        <v>18.05786514282227</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>14.00432968139648</v>
+        <v>14.00433254241943</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>27.40367126464844</v>
+        <v>27.40368270874023</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>16.82749557495117</v>
+        <v>16.82750129699707</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>9.605499267578125</v>
+        <v>9.605501174926758</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>22.41049194335938</v>
+        <v>22.4105052947998</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>20.72448348999023</v>
+        <v>20.72447967529297</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>21.27804756164551</v>
+        <v>21.27803993225098</v>
       </c>
     </row>
     <row r="100" spans="1:6">
